--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_220.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_220.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,223 +488,220 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.119815668202765</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'A', 'A/b7']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_196</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.3809523809523809</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'D/5', 'D']]</t>
+          <t>[['A/3', 'E:7', 'A']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(36.173061, 41.86195)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(90.564195, 93.10678)]</t>
+          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
-        </is>
-      </c>
+          <t>[('0:00:08.700000', '0:00:18.300000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.4875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(11.06, 66.82)]</t>
+          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(11.0, 66.82)]</t>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>[('0:00:52.740000', '0:01:00.860000')]</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_251</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
+          <t>[['G', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(47.3, 50.04)]</t>
+          <t>[['F', 'C/3', 'F', 'C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.42, 5.02)]</t>
+          <t>[('0:00:09.370997', '0:00:22.141972')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:01:16.132993', '0:01:19.523105')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.08684863523573201</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min/A', 'A:min']]</t>
-        </is>
+          <t>isophonics_35</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1107692307692308</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['D:min', 'G:7', 'C', 'C/7']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(28.14, 36.1)]</t>
+          <t>[['A:min/C', 'D:7', 'G:maj', 'G:maj']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:00:10.937548', '0:00:16.810929')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>[('0:00:05.860000', '0:00:13.380000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>spotify:track:1dxbAIfCASqv6jix2R1Taj</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['A#:min/F', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(3.66, 7.56)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(6.28, 12.06)]</t>
+          <t>[('0:00:24.280000', '0:00:51.080000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
+          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -708,495 +710,460 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_65</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.1384615384615385</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>isophonics_133</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_81</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3645833333333334</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min/E', 'E:7', 'A:min'], ['A:min', 'E:maj', 'A:min']]</t>
+          <t>[['D/2', 'D/3', 'G', 'D', 'D/2']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(9.1, 13.86), (0.78, 5.98)]</t>
+          <t>[['B', 'B', 'E/5', 'B', 'B']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(83.1, 90.02), (13.5, 21.9)]</t>
+          <t>[('0:00:56.753520', '0:01:14.388469')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:55.629773', '0:01:07.541609')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_149</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_109</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>0.1348837209302326</v>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(36.28, 38.0)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(13.42, 17.82)]</t>
+          <t>[('0:00:36.640000', '0:00:38.520000'), ('0:00:36.340000', '0:00:37.980000'), ('0:00:09.780000', '0:00:14.360000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>[('0:00:12.540000', '0:00:25.940000'), ('0:00:52.420000', '0:01:01.260000'), ('0:00:01.540000', '0:00:06.880000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_255</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1483870967741935</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['A:min', 'D:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_143</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1384615384615385</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:min', 'G:min/5', 'D:min']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'F#:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(14.9, 22.16)]</t>
+          <t>[['D#:min', 'A#:7', 'D#:min'], ['D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(27.789047, 31.109501)]</t>
+          <t>[('0:01:14.800000', '0:01:21.060000'), ('0:00:13.420000', '0:00:19.500000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:08.260000', '0:00:12.960000'), ('0:00:00.360000', '0:00:05.060000')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:6rHh8urosEFRI67xVa6fzU</t>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.197198275862069</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D', 'E', 'A', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'G', 'A', 'D', 'G']]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(5.463061, 20.172902)]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(31.43458, 40.304603)]</t>
+          <t>[('0:00:14.200000', '0:00:18.800000'), ('0:00:31.740000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:00:12.260000', '0:00:25.040000'), ('0:01:05.260000', '0:01:11.040000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_118</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_71</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06976744186046512</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_242</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.225095785440613</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:min', 'C:min'], ['D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['E', 'E', 'B', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(14.2, 18.8), (31.74, 33.88)]</t>
+          <t>[['G', 'G', 'D', 'C', 'G']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(12.7, 27.18), (75.8, 82.44)]</t>
+          <t>[('0:00:12.672857', '0:00:24.573083')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:52.711123', '0:01:02.486724')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:5SUlhldQJtOhUr2GzH5RI7</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_9</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2687747035573123</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C:7', 'F:maj', 'F:maj/A', 'C:7']]</t>
-        </is>
+          <t>schubert-winterreise_124</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#']]</t>
+          <t>[['F:min', 'C#', 'G:hdim7/A#', 'C:7', 'F:min', 'A#:min/C#', 'C:7', 'G#:min/B', 'A#:7', 'D#:min', 'A#:7', 'D#:min', 'A#', 'A#:min', 'F:min/C', 'C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(21.08, 24.32)]</t>
+          <t>[['D#:min', 'B', 'F:hdim7/G#', 'A#:7', 'D#:min', 'G#:min/B', 'A#:7', 'F#:min/A', 'G#:7', 'C#:min', 'G#:7', 'C#:min', 'G#', 'G#:min', 'D#:min/A#', 'A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(5.7, 12.08)]</t>
+          <t>[('0:00:18.380000', '0:01:02.360000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
+          <t>[('0:00:16.520000', '0:01:04.980000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_121</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(3.82, 8.62)]</t>
+          <t>[['C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min', 'C:min/G', 'G:7', 'C:min', 'A#/D', 'A#:7', 'D#', 'C:min', 'F:7/C', 'A#', 'D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#', 'D:dim7/D#', 'D#:7', 'G#', 'F:min', 'A#:7/F', 'D#', 'G#/C', 'D#:7/A#', 'G#/C', 'D#', 'G#', 'D:hdim7/F', 'C:min/D#', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'D:hdim7/F', 'C:min/D#', 'D#/G', 'C:min/G', 'G:7', 'C:min', 'B:dim7/C', 'C:min', 'F:min', 'C:min/G', 'F:min7/G#', 'C:min/G', 'G:7', 'C:min', 'C:min', 'D:hdim7/C', 'C:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(11.5, 28.96)]</t>
+          <t>[('0:00:17.900000', '0:01:52.420000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>[('0:00:17.200000', '0:01:42.900000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_5</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_137</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_107</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_206</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(13.6, 17.78)]</t>
+          <t>[['A:(3,5,b7,b9)', 'D:min', 'F#:dim7'], ['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj'], ['G#:dim7', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.7, 18.64)]</t>
+          <t>[('0:00:14.460000', '0:00:19.040000'), ('0:00:24.660000', '0:00:27.760000'), ('0:00:19.700000', '0:00:21.360000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>[('0:00:12.980000', '0:00:17.200000'), ('0:00:22.600000', '0:00:25.720000'), ('0:00:17.900000', '0:00:19.440000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_277</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_191</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(31.840929, 39.410634)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D', 'B:maj/D#', 'E:min', 'C#:hdim7', 'B:min', 'C:maj', 'G:maj/B', 'F#:7', 'G:maj'], ['B:7/A', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min/G', 'B:maj/F#', 'E:min', 'B:min/F#']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(128.16, 129.88)]</t>
+          <t>[('0:00:00.680000', '0:00:10.700000'), ('0:01:25.700000', '0:01:34.320000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:01.540000', '0:00:10.140000'), ('0:01:11.500000', '0:01:18.960000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_213</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1230769230769231</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_152</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/G#', 'A:min']]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(41.38, 43.34)]</t>
+          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min', 'A:min', 'B:hdim7/D', 'E:7', 'A:min', 'G#:dim7', 'A:min', 'G#:dim7', 'E:maj/B', 'A:min/C', 'G:maj/B', 'F:maj/A', 'C:maj/G', 'F:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:maj/A', 'E:min/B', 'B:7', 'E:min', 'D#:dim7/F#', 'E:min/G', 'E:(3,5,b7,b9)/G#', 'A:min', 'A:(3,5,b7,b9)', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'G#:dim7', 'B:hdim7/D', 'G#:dim7', 'B:hdim7/D', 'E:(3,5,b7,b9)', 'A:min', 'A:(3,5,b7,b9)/C#', 'D:min', 'A:min/E', 'E:(3,5,b7,b9)', 'A:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(42.94, 51.08)]</t>
+          <t>[('0:00:11.060000', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:11', '0:01:06.820000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_82</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.0573386224305806</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'D'], ['D', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D/5', 'G', 'C'], ['C', 'D', 'G']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(54.526825, 61.516031), (52.750498, 59.809365)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(38.435396, 43.311587), (17.014988, 20.892721)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
